--- a/biology/Botanique/Cuminum_cyminum/Cuminum_cyminum.xlsx
+++ b/biology/Botanique/Cuminum_cyminum/Cuminum_cyminum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuminum cyminum
 Le cumin (Cuminum cyminum) est une plante herbacée annuelle de la famille des Apiacées (Ombellifères), comme le persil.
@@ -514,7 +526,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom : cumin blanc, cumin, sillon
 Caractéristiques de croissance[pas clair] :
@@ -563,7 +577,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cumin est originaire du Levant ; le mot est d'origine sémitique. Il est attesté en akkadien [kamunu], en ougaritique [kmn] et en phénicien [kmn]; en arabe, [kamun], et en hébreu, [kah-MOHN]. Dans les langues indo-européennes, on atteste en mycénien kumino et en grec to kuminon ; le latin cuminum est emprunté au grec. En français, on trouve notamment les formes « cumin », « coumin », « comin », « commin ». Le mot figure dans des fabliaux du Moyen Âge, et un ménagier[réf. souhaitée] donne la recette de la cominee de poulaille, un ragoût de poule au cumin.
 Le cumin est probablement originaire du bassin méditerranéen, dans la vallée du Nil ou dans l'Anatolie, puisqu'on peut retracer en Égypte son utilisation il y a au moins cinq mille ans. Chez les Égyptiens, le cumin avait des vertus médicinales. De plus, les tombeaux des pharaons étaient parsemés de graines de cumin par les membres de leur famille. Les Hébreux ont utilisé cette graine comme moyen de dîme dans les églises. D'après d'anciens écrits, tels que la Bible, le cumin servait de monnaie d'échange pour payer des dettes ; et le cumin était battu au fléau. Au Moyen Âge, les serfs l'utilisaient comme monnaie d'échange pour s'affranchir. En ce temps-là, le principal mets au cumin était le poisson. Selon Pline, il permet d'ouvrir l'appétit.
@@ -597,7 +613,9 @@
           <t>Croyances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Au Moyen Âge, un petit sachet de graines porté sur soi protégeait du mauvais sort et des sorcières.
 Dans l'Antiquité, le cumin servait aux médecins et aux sorciers des villages égyptiens et grecs, car il entrait dans la composition de drogues à ingérer.
@@ -631,50 +649,54 @@
           <t>Provenance et utilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante ombellifère originaire d'Europe de l'Est. Maintenant, elle est plus régulièrement importée d'Afrique du nord, de l'Iran, de la Chine et des Amériques et le marché important se situe en Europe centrale. La portion consommable de la plante est la graine qui est préalablement séchée, et éventuellement pulvérisée, pour en faire une épice . Il est également possible d'en obtenir des huiles essentielles par distillation, contenant majoritairement du cuminaldéhyde et de l'alcool cuminique.
 Dans certains pays du Maghreb, la poudre de graines du cumin est utilisée mélangée avec de l'eau pour calmer les problèmes digestifs, notamment les brûlures d'estomac.
-Cuisine
-Le cumin entre dans la composition d'aromates très différents comme le curry, le chili et le garam masala (mélange d'épices traditionnelles du Nord de l'Inde), mais il est à ajouter modérément aux plats préparés, car en grande dose son goût est fort, sa saveur chaude, piquante et âcre. On peut l'utiliser en remplacement du carvi dans certains mets, et il reste l'élément essentiel dans la confection de la poudre de massalé. Le cumin incorporé dans les fromages gouda et edam est en fait du « cumin de Hollande », autrement dit du carvi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuminum_cyminum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuminum_cyminum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Provenance et utilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cuisine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cumin entre dans la composition d'aromates très différents comme le curry, le chili et le garam masala (mélange d'épices traditionnelles du Nord de l'Inde), mais il est à ajouter modérément aux plats préparés, car en grande dose son goût est fort, sa saveur chaude, piquante et âcre. On peut l'utiliser en remplacement du carvi dans certains mets, et il reste l'élément essentiel dans la confection de la poudre de massalé. Le cumin incorporé dans les fromages gouda et edam est en fait du « cumin de Hollande », autrement dit du carvi.
 Il est très utilisé dans la majorité du nord de la Chine, dans les régions musulmanes ou autrefois musulmanes (du Xinjiang à la Mandchourie), et aujourd'hui beaucoup à Pékin, pour assaisonner l'agneau. Il permet de réduire les odeurs fortes de la viande rouge ou des poissons, de la désinfecter grâce à ses vertus antiseptiques résistantes à la cuisson, et les parfumer ainsi que d'augmenter l'appétit.
 À travers les âges, les potages, le pain, la volaille et le poisson ont été cominés, principe qui consistait à incorporer ou badigeonner ces plats de cumin.
 D'autres idées de plats dans lesquels le cumin peut être ajouté sont les tajines du Maroc, le couscous au poisson tunisien, le lablabi, les merguez et le ras el-hanout, et le gaspacho et empanadas d'Amérique centrale.
 Les habitants de l'île de La Réunion sont réputés pour l'ajouter à leurs mets, sans toutefois le faire pousser directement sur l'île.
 Les parfums, puisqu'il entre dans leur composition sous forme d'huile, font eux aussi partie du marché du cumin. Enfin, on trouve des alcools au cumin, comme la liqueur estonienne Kännu Kukk.
-Médecine traditionnelle chinoise
-Utilisé pour tiédir la rate ou réduire les excès de chaud du foie, et améliorer l'appétit[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cuminum_cyminum</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuminum_cyminum</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Calendrier</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 22e jour du mois de messidor (des moissons) du calendrier républicain / révolutionnaire français est dénommé jour du cumin[2], généralement chaque 10 juillet du calendrier grégorien.
 </t>
         </is>
       </c>
@@ -700,12 +722,84 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Provenance et utilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médecine traditionnelle chinoise</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisé pour tiédir la rate ou réduire les excès de chaud du foie, et améliorer l'appétit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuminum_cyminum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuminum_cyminum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Calendrier</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22e jour du mois de messidor (des moissons) du calendrier républicain / révolutionnaire français est dénommé jour du cumin, généralement chaque 10 juillet du calendrier grégorien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuminum_cyminum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuminum_cyminum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Commerce</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, la France est nette importatrice de cumin, d'après les douanes françaises. Le prix à la tonne à l'import était d'environ 3 540 €[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, la France est nette importatrice de cumin, d'après les douanes françaises. Le prix à la tonne à l'import était d'environ 3 540 €.
 </t>
         </is>
       </c>
